--- a/Metropolitan Roads/28142/ITP-110-CIV-SSB-Ground Improvement (Structural Fill) Rev 0.xlsx
+++ b/Metropolitan Roads/28142/ITP-110-CIV-SSB-Ground Improvement (Structural Fill) Rev 0.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fultonhogan.sharepoint.com/teams/PD05433/Shared Documents/11_Asset Integration/11_035_Quality/11_010 Quality Management Plan/11_10_200_Inspection_and_Test_Plans_ITPs/03 LIVE in ConQA/ITP-111-CIV-SSB-Type A Fill-Road/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mirav\Desktop\Projects\03-Station Street, Beaconsfield\01-ITPs\ITP-110-CIV-SSB-Ground Improvement (Structural Fill)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{31E7B552-88F4-469F-8ADA-5342107E6D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F6A0F5-2293-4824-A67B-5E93216034DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-13770" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$W$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$11:$Q$44</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$11:$18</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="119">
   <si>
     <t>ConQA Team Notes:</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t xml:space="preserve">ITP created by: </t>
-  </si>
-  <si>
-    <t>Victor Mira</t>
   </si>
   <si>
     <t xml:space="preserve">ITP approved for use by: </t>
@@ -131,18 +128,11 @@
     <t>Referenced Documentation</t>
   </si>
   <si>
-    <t>1.1</t>
-  </si>
-  <si>
     <t>Non Dependent</t>
   </si>
   <si>
-    <t>IFC Drawings
-VicRoads Standard Section 176 (Sept 2008)
-VicRoads Section
-204 (Dec 2015)
-Code of Practice RC500.20
-Code of Practice RC500.5</t>
+    <t>VicRoads Section
+204 (Dec 2015)</t>
   </si>
   <si>
     <t>N/A</t>
@@ -151,220 +141,194 @@
     <t>NA</t>
   </si>
   <si>
-    <t>Preliminaries-Materials</t>
-  </si>
-  <si>
-    <t>Material Conformance</t>
-  </si>
-  <si>
-    <t>Section 204.04 b)
-Table 204.041</t>
+    <t>IFC Report and Drawings</t>
+  </si>
+  <si>
+    <t>Preliminaries</t>
+  </si>
+  <si>
+    <t>Material Approval</t>
+  </si>
+  <si>
+    <t>Review and Verify</t>
+  </si>
+  <si>
+    <t>Once per material type prior to commence of works</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>Nominated Authority</t>
+  </si>
+  <si>
+    <t>ConQA Hold Point Release</t>
+  </si>
+  <si>
+    <t>Pre-construction / Pre-installation Activities</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>Survey Set-out</t>
+  </si>
+  <si>
+    <t>Section 204.03
+IFC drawings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Survey pegs in place and clearly marks out the limits of the Works. </t>
+  </si>
+  <si>
+    <t>Measure
+Visual</t>
+  </si>
+  <si>
+    <t>Each element</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>SE/Site Supervisor</t>
+  </si>
+  <si>
+    <t>Sign ITP</t>
+  </si>
+  <si>
+    <t>Cut  Activities</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>Subgrade Level</t>
+  </si>
+  <si>
+    <t>Section 204.03 (g)
+Section  204.03 (h)
+IFC drawings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Measure
+</t>
+  </si>
+  <si>
+    <t>Each lot</t>
+  </si>
+  <si>
+    <t>Surveyor/SE/Site Supervisor</t>
+  </si>
+  <si>
+    <t>Sign ITP
+Survey Pick Up Report</t>
+  </si>
+  <si>
+    <t>Founding Material Inspection</t>
+  </si>
+  <si>
+    <t>Verify
+Document</t>
+  </si>
+  <si>
+    <t>Geotech Engineer /SE/Site Supervisor</t>
+  </si>
+  <si>
+    <t>ConQA Hold Point Release
+Geotech Report</t>
+  </si>
+  <si>
+    <t>Proof Roll</t>
+  </si>
+  <si>
+    <t>Section 204.10 (b)
+Section 204.12
+IFC drawings</t>
+  </si>
+  <si>
+    <t>Visual</t>
+  </si>
+  <si>
+    <t>Fill Activities</t>
+  </si>
+  <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>Structural Fill Placement</t>
+  </si>
+  <si>
+    <t>Section 204.10 (d) (ii)
+IFC Report and Drawings</t>
+  </si>
+  <si>
+    <t>Fill material shall be spread and compacted in layers not exceeding 200mm compacted thickness.
+Extent of fill placement to be as per IFC Report and Drawings</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>Keying of Layers</t>
+  </si>
+  <si>
+    <t>Section 204.10(d)(i)</t>
+  </si>
+  <si>
+    <t>Each layer of fill shall be keyed into the layer above by creation of a textured surface.</t>
+  </si>
+  <si>
+    <t>5.3</t>
+  </si>
+  <si>
+    <t>Section 204.13 (b) (i)
+Section 204.12</t>
+  </si>
+  <si>
+    <t>Withstands Test rolling without visible deformation or springing.
+No fill to be placed until the area has been reviewed and approved.</t>
+  </si>
+  <si>
+    <t>5.4</t>
+  </si>
+  <si>
+    <t>Compaction Testing</t>
+  </si>
+  <si>
+    <t>Table 204.131
+Section 204.13, 204.14</t>
   </si>
   <si>
     <t>Document Review</t>
   </si>
   <si>
-    <t>Once, for each material type</t>
-  </si>
-  <si>
-    <t>HP</t>
-  </si>
-  <si>
-    <t>SE/Nominated Authority</t>
-  </si>
-  <si>
-    <t>Supplier Material Conformance Certificate</t>
-  </si>
-  <si>
-    <t>Preliminaries-Documentations</t>
-  </si>
-  <si>
-    <t>Pre-Commencement of Fill Works</t>
-  </si>
-  <si>
-    <t>Section 204.10 (b)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Areas upon which fills are to be constructed shall be prepared for test rolling by the Contractor.
-The Contractor shall not commence placing any fill on the prepared areas until the area has been reviewed by the Nominated Authority.
-No fill shall be placed against or within 3 m of a structure until the foundation for the fill has been reviewed by the Nominated Authority
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Reference: Subgrade Preparation Lot Number:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <t>Visual Inspection</t>
-  </si>
-  <si>
-    <t>Prior to commencement of fill works</t>
-  </si>
-  <si>
-    <t>Pre-construction / Pre-installation Activities</t>
-  </si>
-  <si>
-    <t>Survey Set Out</t>
-  </si>
-  <si>
-    <t>Design Drawings</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Set out pegs in place and clearly mark out limits of works.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ATTACH: LOT MARKED UP LOCATION ON THE IFC DRAWING (LOT MAP)</t>
-    </r>
-  </si>
-  <si>
-    <t>Each lot prior to commencement</t>
-  </si>
-  <si>
-    <t>HP*</t>
-  </si>
-  <si>
-    <t>PE</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Signed ITP
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Lot Map</t>
-    </r>
-  </si>
-  <si>
-    <t>Type A Fill/Verge Activities</t>
-  </si>
-  <si>
-    <t>Placing of Fill</t>
-  </si>
-  <si>
-    <t>Section 204.10</t>
-  </si>
-  <si>
-    <t>Type A material shall be spread and compacted in layers not exceeding a compacted thickness of 200 mm.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Visual</t>
-  </si>
-  <si>
-    <t>Each Lot</t>
-  </si>
-  <si>
-    <t>WP</t>
-  </si>
-  <si>
-    <t>SE/Site Supervisor</t>
-  </si>
-  <si>
-    <t>Sign ITP</t>
-  </si>
-  <si>
-    <t>Test Roll</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Section 173.03
-Section 204.12
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Each Layer shall be test rolled in accordance with 
-Section 173. Where site access is restricted, verify with a pickaxe drop or similar, at the Nominated Authorities discretion. </t>
-  </si>
-  <si>
-    <t>Test Roll as per 173.03</t>
-  </si>
-  <si>
-    <t>Each Lot/Layer</t>
-  </si>
-  <si>
-    <t>Compaction Testing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Table 204.131
-Section 204.14 c)
-Table 204.142
-</t>
-  </si>
-  <si>
-    <t>Review Document</t>
-  </si>
-  <si>
-    <t>Test the first 3 lots. Reduced min. frequency every 2nd lot of like material and work</t>
-  </si>
-  <si>
-    <t>IP</t>
+    <t>SE</t>
   </si>
   <si>
     <t>Sign ITP
-Attach Compaction Test Report</t>
+Compaction Test Report</t>
+  </si>
+  <si>
+    <t>5.6</t>
   </si>
   <si>
     <t>Preparation of final surface</t>
   </si>
   <si>
-    <t>Section 204.15, 204.03 (g)</t>
-  </si>
-  <si>
-    <t>The top of the Type A material, Cut Floor Level and subgrade surfaces shall be prepared to level and shape within the tolerances specified in Clause 204.03 (g) to produce a smooth, hard, tightly bound surface, free from depressions capable of holding water).</t>
-  </si>
-  <si>
-    <t>Measure</t>
+    <t>Section 204.15</t>
+  </si>
+  <si>
+    <t>The top of the subgrade surface shall be prepared to level and shape to produce a smooth, hard, tightly bound surface, free from depressions capable of holding water.</t>
   </si>
   <si>
     <t>Top layer</t>
   </si>
   <si>
-    <t>Signed ITP</t>
-  </si>
-  <si>
-    <t>Post-construction Activities</t>
-  </si>
-  <si>
-    <t>Survey Conformance</t>
-  </si>
-  <si>
-    <t>VicRoads 204.03f,g and h</t>
-  </si>
-  <si>
-    <t>Top of Type A/Verge</t>
+    <t>Post-construction / Post-installation Activities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As-built Survey </t>
   </si>
   <si>
     <t>Surveyor
@@ -381,12 +345,15 @@
     <t>MRPA Quality Management Plan</t>
   </si>
   <si>
-    <t>Ensure that any NCRs pertaining to the lot / element / Work area that this ITP covers, have been closed in CAMs.</t>
+    <t>Ensure that any NCRs pertaining to the lot / element / Work area that this ITP covers, have been closed.</t>
   </si>
   <si>
     <t>Once, prior to closure of this lot / element / Work area</t>
   </si>
   <si>
+    <t>HP*</t>
+  </si>
+  <si>
     <t>SE/PE/SPE</t>
   </si>
   <si>
@@ -405,91 +372,103 @@
     <t>Hiruni Wickramarathne</t>
   </si>
   <si>
-    <t>ITP for SBS</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Type A material shall comply with the requirements of Table 204.041 and shall be free of topsoil, deleterious and/or perishable matter.
-Assigned CBR≥ 6%
+    <t>Victor Mera</t>
+  </si>
+  <si>
+    <t>Structural Fill Material shall meet the following requirements:
+Scale C
+CBR ≥ 6%
 Swell ≤ 1.5%
- Permeability ≤ 5X10-9 m/s
-Grading: 75.0mm 100%
-                4.75mm 40-80%
-                0.075mm 10-40%
+Permeability &gt; 10-7m/s to allow consolidation (where &lt;10-7 m/s, drainage layer or geonet to be provided)
+PI (LL) = 6 - 25
+Effective Friction Angle = 32*
+Effective Cohesion = 0-5kPa
+Unit weight ≥19kN/m3
+Grading:
+% passing 75.0mm sieve = 100
+% passing   4.75mm sieve = 40 - 80
+% passing   0.075mm = 10 - 40
+Enter: Teambinder Material Approval number
+[free text box]</t>
+  </si>
+  <si>
+    <t>Third party Geotech Engineer /SE/Site Supervisor</t>
+  </si>
+  <si>
+    <t>ConQA Hold Point Release
+Test Report</t>
+  </si>
+  <si>
+    <t>Founding Material testing</t>
+  </si>
+  <si>
+    <t>Earthworks shall be finished to conform to the levels, lines, grades and cross sections specified or shown on the relevant Ground Improvement drawings within the following limits: 
+For Scale C
+No point of subgrade surface shall be more than 10mm above or 30mm below the specified level.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCP test to be carried out on the excavated surface to confirm the strength of the existing material is in accordance with Deisgn values for relevant chainages as below.
+Min DCP required /100mm
+10000-10030 : 5 ( South)
+10300-10320 : 7 (North)
+10320-10360 : 6 (North)
+10360-10400 : 5 (North)
+10400-10410 : 3 (North)
 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Reference: Material approval in Teambinder:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
+  </si>
+  <si>
+    <t>Excavated subgrade to be compacted and proof rolled before any construction.
+Withstands Test rolling without visible deformation or springing.
+No fill to be placed until the area has been reviewed and approved.
+If Proof Roll fail go to section 4.4</t>
+  </si>
+  <si>
+    <t>Geotechnical Engineer shall inspect founding material.
+Any areas in Ground Improvement footprint where proof roll test or bearing capacity are inadequate crushed rock shall be placed and compacted into the excavated surface under direction from geotech engineer
+Attach: Geotechnical Field Sheet or Report</t>
+  </si>
+  <si>
+    <t>Section 204.03 (g), 204.16</t>
+  </si>
+  <si>
+    <t>Scale C:
+Tolerance: No point surface shall be more than 10mm above or 30mm below the specified level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Each lot </t>
+  </si>
+  <si>
+    <t>Section 204.04
+Table 204.041
+IFC drawings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Each Lot to be tested for compaction as Scale C requirements (3 tests per lot)
+Lot = One day's production or 5,000m2, whichever is the lesser
+Characteristic Density Ratio = 100% minimum
 </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Testing as per 204. Ensure testing is tracked and reports available.
-Standard Compactive Effort
-For work to be tested for compliance with Scale C compaction requirements, the number of tests per test lot shall be three.
-Compaction and Moisture content 
-Scale A: Characteristic Density Ratio 99%.
-Scale B: Characteristic Density Ratio 98%.
-Scale C: Mean Value of Density Ratio: 100%
-Lot size - the leser of one day's production or 5,000sqm
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ATTACH: COMPACTION TEST RESULTS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">The level at any point on the subgrade shall not lie more than 20 mm below a 3 m straightedge laid in any direction, except across a crown and water shall not pond at any point.
-Level tolerances Scale C:
-Where Scale C is nominated, random levelling is not required; however no point on the subgrade surface shall be more than 10 mm above or 30 mm below the specified level.
-</t>
-  </si>
-  <si>
-    <t>111-CIV</t>
-  </si>
-  <si>
-    <t>SSB-Type A Fill - Road</t>
-  </si>
-  <si>
-    <t>Inspection &amp; Test Plan - Type A Fill - Road</t>
+  </si>
+  <si>
+    <t>Each Lot unless otherwise directed by Nominated Authority</t>
+  </si>
+  <si>
+    <t>110-CIV</t>
+  </si>
+  <si>
+    <t>ITP for Beaconsfield Project</t>
+  </si>
+  <si>
+    <t>Inspection &amp; Test Plan - Ground Improvement Works (Structural Fill)</t>
+  </si>
+  <si>
+    <t>SSB-Ground Improvement (Structural Fill)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -577,19 +556,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -859,7 +825,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -878,6 +844,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -929,23 +898,24 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1423,10 +1393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S38"/>
+  <dimension ref="A1:X44"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1434,125 +1404,125 @@
     <col min="1" max="1" width="5.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="33.85546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="38.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" style="2" customWidth="1"/>
     <col min="5" max="10" width="10.7109375" style="2" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="56" t="str">
+      <c r="B2" s="13"/>
+      <c r="C2" s="58" t="str">
         <f>"ITP-"&amp;C4&amp;"-"&amp;C3</f>
-        <v>ITP-111-CIV-SSB-Type A Fill - Road</v>
-      </c>
-      <c r="D2" s="57"/>
+        <v>ITP-110-CIV-SSB-Ground Improvement (Structural Fill)</v>
+      </c>
+      <c r="D2" s="59"/>
     </row>
     <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="56" t="s">
-        <v>100</v>
-      </c>
-      <c r="D3" s="57"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="58" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="59"/>
     </row>
     <row r="4" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="56" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" s="57"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="59"/>
     </row>
     <row r="5" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="56">
+      <c r="B5" s="13"/>
+      <c r="C5" s="58">
         <v>0</v>
       </c>
-      <c r="D5" s="57"/>
+      <c r="D5" s="59"/>
     </row>
     <row r="6" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="58">
+      <c r="B6" s="13"/>
+      <c r="C6" s="60">
         <f ca="1">TODAY()</f>
         <v>45254</v>
       </c>
-      <c r="D6" s="59"/>
+      <c r="D6" s="61"/>
     </row>
     <row r="7" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="D7" s="57"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="59"/>
     </row>
     <row r="8" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="59"/>
+    </row>
+    <row r="9" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="56" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="57"/>
-    </row>
-    <row r="9" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="D9" s="57"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="58" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" s="59"/>
     </row>
     <row r="11" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
-      <c r="D11" s="62" t="s">
-        <v>101</v>
-      </c>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="64"/>
+      <c r="D11" s="64" t="s">
+        <v>117</v>
+      </c>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="66"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="K12" s="22">
+      <c r="D12" s="21"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" s="23">
         <f>C5</f>
         <v>0</v>
       </c>
@@ -1563,608 +1533,778 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="33">
+      <c r="D13" s="50"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="K13" s="34">
         <f ca="1">C6</f>
         <v>45254</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
     </row>
     <row r="15" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="65"/>
-      <c r="B15" s="66"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
+      <c r="A15" s="67"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
     </row>
     <row r="16" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="31"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="12"/>
+      <c r="A16" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="32"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="13"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
     </row>
-    <row r="17" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="67" t="s">
+    <row r="17" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="67" t="s">
+      <c r="C17" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="67" t="s">
+      <c r="D17" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="67" t="s">
+      <c r="E17" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="67" t="s">
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67" t="s">
+      <c r="I17" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="I17" s="67" t="s">
+      <c r="J17" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="J17" s="55" t="s">
+      <c r="K17" s="69" t="s">
         <v>20</v>
-      </c>
-      <c r="K17" s="67" t="s">
-        <v>21</v>
       </c>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A18" s="67"/>
-      <c r="B18" s="67"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="38" t="s">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A18" s="69"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="38" t="s">
+      <c r="G18" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="67"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="69"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A19" s="18">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A19" s="19">
         <v>1</v>
       </c>
-      <c r="B19" s="54" t="s">
+      <c r="B19" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+    </row>
+    <row r="20" spans="1:24" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="20">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
-    </row>
-    <row r="20" spans="1:19" ht="112.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="19" t="s">
+      <c r="C20" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="D20" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="E20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="K20" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="D21" s="7"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="5"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A22" s="20">
+        <v>1.3</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="5"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A23" s="19">
+        <v>2</v>
+      </c>
+      <c r="B23" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
+    </row>
+    <row r="24" spans="1:24" ht="273" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="20">
+        <v>2.1</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D24" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="I24" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="62"/>
+      <c r="M24" s="63"/>
+      <c r="N24" s="63"/>
+      <c r="O24" s="63"/>
+      <c r="P24" s="63"/>
+      <c r="Q24" s="63"/>
+      <c r="R24" s="63"/>
+      <c r="S24" s="63"/>
+      <c r="T24" s="63"/>
+      <c r="U24" s="63"/>
+      <c r="V24" s="63"/>
+      <c r="W24" s="63"/>
+      <c r="X24" s="63"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A25" s="19">
+        <v>3</v>
+      </c>
+      <c r="B25" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="56"/>
+    </row>
+    <row r="26" spans="1:24" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="G26" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="H26" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="I26" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="J26" s="18"/>
+      <c r="K26" s="5"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A27" s="19">
+        <v>4</v>
+      </c>
+      <c r="B27" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="56"/>
+    </row>
+    <row r="28" spans="1:24" ht="138.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="E28" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="F28" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="H28" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="I28" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="36"/>
+    </row>
+    <row r="29" spans="1:24" ht="131.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="20">
+        <v>4.2</v>
+      </c>
+      <c r="B29" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="D29" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="E29" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="F29" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="G29" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H29" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="I29" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="J29" s="40"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="36"/>
+    </row>
+    <row r="30" spans="1:24" ht="131.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="20">
+        <v>4.3</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="E30" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="F30" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H30" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="I30" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="J30" s="40"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="36"/>
+    </row>
+    <row r="31" spans="1:24" ht="123" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="20">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A21" s="18">
-        <v>2</v>
-      </c>
-      <c r="B21" s="54" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
-    </row>
-    <row r="22" spans="1:19" ht="157.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="19">
-        <v>2.1</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="E22" s="34" t="s">
+      <c r="D31" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="E31" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="G31" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F22" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="G22" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="H22" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="I22" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="60"/>
-      <c r="M22" s="61"/>
-      <c r="N22" s="61"/>
-      <c r="O22" s="61"/>
-      <c r="P22" s="61"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A23" s="18">
-        <v>3</v>
-      </c>
-      <c r="B23" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="40"/>
-    </row>
-    <row r="24" spans="1:19" ht="157.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="19">
-        <v>3.1</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F24" s="4" t="s">
+      <c r="H31" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="I31" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="36"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A32" s="19">
+        <v>5</v>
+      </c>
+      <c r="B32" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="56"/>
+    </row>
+    <row r="33" spans="1:12" ht="67.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="E33" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="G33" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="G24" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="H24" s="5"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A25" s="18">
-        <v>4</v>
-      </c>
-      <c r="B25" s="54" t="s">
+      <c r="H33" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54"/>
-    </row>
-    <row r="26" spans="1:19" ht="45" x14ac:dyDescent="0.2">
-      <c r="A26" s="19">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="B26" s="6" t="s">
+      <c r="I33" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I26" s="4" t="s">
+      <c r="J33" s="40"/>
+      <c r="K33" s="40"/>
+    </row>
+    <row r="34" spans="1:12" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="E34" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="F34" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A27" s="18">
-        <v>5</v>
-      </c>
-      <c r="B27" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="54"/>
-      <c r="K27" s="54"/>
-    </row>
-    <row r="28" spans="1:19" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="19">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-    </row>
-    <row r="29" spans="1:19" ht="45" x14ac:dyDescent="0.2">
-      <c r="A29" s="19">
-        <v>5.2</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G29" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-    </row>
-    <row r="30" spans="1:19" ht="213.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="19">
-        <v>5.3</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="D30" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F30" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="60"/>
-      <c r="M30" s="61"/>
-      <c r="N30" s="61"/>
-    </row>
-    <row r="31" spans="1:19" ht="67.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="19">
-        <v>5.4</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="H31" s="5"/>
-      <c r="I31" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A32" s="18">
-        <v>6</v>
-      </c>
-      <c r="B32" s="54" t="s">
-        <v>79</v>
-      </c>
-      <c r="C32" s="54"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="54"/>
-      <c r="H32" s="54"/>
-      <c r="I32" s="54"/>
-      <c r="J32" s="54"/>
-      <c r="K32" s="54"/>
-    </row>
-    <row r="33" spans="1:11" ht="123.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="19">
-        <v>6.2</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C33" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="D33" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-    </row>
-    <row r="34" spans="1:11" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="19">
-        <v>6.3</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>90</v>
+      <c r="G34" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="H34" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="I34" s="35" t="s">
+        <v>46</v>
       </c>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="24"/>
-      <c r="B35" s="41" t="s">
+    <row r="35" spans="1:12" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="E35" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="F35" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="G35" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H35" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="I35" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+    </row>
+    <row r="36" spans="1:12" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="E36" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="F36" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="G36" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H36" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="I36" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="J36" s="40"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="36"/>
+    </row>
+    <row r="37" spans="1:12" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="A37" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="E37" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="F37" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="G37" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="H37" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="I37" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="36"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" s="19">
+        <v>6</v>
+      </c>
+      <c r="B38" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" s="56"/>
+      <c r="D38" s="56"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="56"/>
+      <c r="H38" s="56"/>
+      <c r="I38" s="56"/>
+      <c r="J38" s="56"/>
+      <c r="K38" s="56"/>
+    </row>
+    <row r="39" spans="1:12" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="A39" s="39">
+        <v>6.1</v>
+      </c>
+      <c r="B39" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="D39" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="E39" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="F39" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="G39" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="H39" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="I39" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="36"/>
+    </row>
+    <row r="40" spans="1:12" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="A40" s="39">
+        <v>6.2</v>
+      </c>
+      <c r="B40" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="D40" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="41"/>
-      <c r="J35" s="41"/>
-      <c r="K35" s="41"/>
-    </row>
-    <row r="36" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="25"/>
-      <c r="B36" s="42" t="s">
+      <c r="E40" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="F40" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="42"/>
-      <c r="J36" s="42"/>
-      <c r="K36" s="43"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="25"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="42"/>
-      <c r="J37" s="42"/>
-      <c r="K37" s="43"/>
-    </row>
-    <row r="38" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="26"/>
-      <c r="B38" s="27" t="s">
+      <c r="G40" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="28"/>
-      <c r="K38" s="29"/>
+      <c r="H40" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="I40" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" s="25"/>
+      <c r="B41" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="43"/>
+      <c r="J41" s="43"/>
+      <c r="K41" s="43"/>
+    </row>
+    <row r="42" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="26"/>
+      <c r="B42" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42" s="44"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="44"/>
+      <c r="J42" s="44"/>
+      <c r="K42" s="45"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" s="26"/>
+      <c r="B43" s="44"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="44"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="44"/>
+      <c r="J43" s="44"/>
+      <c r="K43" s="45"/>
+    </row>
+    <row r="44" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="27"/>
+      <c r="B44" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="29"/>
+      <c r="K44" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="L22:P22"/>
-    <mergeCell ref="L30:N30"/>
+  <mergeCells count="32">
+    <mergeCell ref="L24:X24"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C3:D3"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="D11:K11"/>
     <mergeCell ref="A15:C15"/>
@@ -2176,26 +2316,24 @@
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C3:D3"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B35:K35"/>
-    <mergeCell ref="B36:K37"/>
+    <mergeCell ref="B41:K41"/>
+    <mergeCell ref="B42:K43"/>
     <mergeCell ref="E12:I12"/>
     <mergeCell ref="E15:I15"/>
     <mergeCell ref="D13:I13"/>
     <mergeCell ref="D14:I14"/>
     <mergeCell ref="B19:K19"/>
     <mergeCell ref="J17:J18"/>
-    <mergeCell ref="B21:K21"/>
-    <mergeCell ref="B32:K32"/>
+    <mergeCell ref="B23:K23"/>
+    <mergeCell ref="B38:K38"/>
     <mergeCell ref="B27:K27"/>
     <mergeCell ref="B25:K25"/>
-    <mergeCell ref="B23:K23"/>
+    <mergeCell ref="B32:K32"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -2205,11 +2343,8 @@
   </headerFooter>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="10" max="16383" man="1"/>
-    <brk id="26" max="22" man="1"/>
+    <brk id="26" max="16" man="1"/>
   </rowBreaks>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="11" max="52" man="1"/>
-  </colBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -2265,63 +2400,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxKeywordTaxHTField xmlns="67a9c916-b9aa-4dc2-9f16-c44ca415698d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <TaxCatchAll xmlns="67a9c916-b9aa-4dc2-9f16-c44ca415698d" xsi:nil="true"/>
-    <_dlc_DocId xmlns="8aefd74c-d14b-451e-bb38-cf3a729b3efa">MRPA-1160097302-435192</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="8aefd74c-d14b-451e-bb38-cf3a729b3efa">
-      <Url>https://fultonhogan.sharepoint.com/teams/PD05433/_layouts/15/DocIdRedir.aspx?ID=MRPA-1160097302-435192</Url>
-      <Description>MRPA-1160097302-435192</Description>
-    </_dlc_DocIdUrl>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <MediaLengthInSeconds xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
-    <ReportID xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
-    <Date xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
-    <me5b5cb8f12249249ca913346c48a983 xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </me5b5cb8f12249249ca913346c48a983>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <j3373299c44a42499a29e1915264a3b5 xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </j3373299c44a42499a29e1915264a3b5>
-    <TeambinderTransmittal xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
-    <Description0 xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
-    <TeambinderNumber xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824">TM No.</TeambinderNumber>
-    <DeborahCollins xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
-    <d0c3539471b44cfa8fe7a085a2c8a5d5 xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </d0c3539471b44cfa8fe7a085a2c8a5d5>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Doc_x0020_Type xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
-    <Owner xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
-    <l1532197b8344cb19adf5365ae4ff0ff xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </l1532197b8344cb19adf5365ae4ff0ff>
-    <cc33861001d04fbf92e96c5a2d70a7b6 xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </cc33861001d04fbf92e96c5a2d70a7b6>
-    <Count xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824">1</Count>
-    <Revision xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005A70E945F2728E4A865DDF9F320753FE" ma:contentTypeVersion="86" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="06fec312cba06fbcf70ba4c04a362f8c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="2836469c-b43e-4aa1-9b97-2c3e7041e824" xmlns:ns3="67a9c916-b9aa-4dc2-9f16-c44ca415698d" xmlns:ns4="8aefd74c-d14b-451e-bb38-cf3a729b3efa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2161b57cbe0e59f69b87efa28a5d6ef4" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2751,6 +2829,62 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Date xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
+    <TaxKeywordTaxHTField xmlns="67a9c916-b9aa-4dc2-9f16-c44ca415698d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <j3373299c44a42499a29e1915264a3b5 xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </j3373299c44a42499a29e1915264a3b5>
+    <Description0 xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
+    <TaxCatchAll xmlns="67a9c916-b9aa-4dc2-9f16-c44ca415698d" xsi:nil="true"/>
+    <d0c3539471b44cfa8fe7a085a2c8a5d5 xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </d0c3539471b44cfa8fe7a085a2c8a5d5>
+    <Doc_x0020_Type xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
+    <l1532197b8344cb19adf5365ae4ff0ff xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l1532197b8344cb19adf5365ae4ff0ff>
+    <Revision xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
+    <_dlc_DocId xmlns="8aefd74c-d14b-451e-bb38-cf3a729b3efa">MRPA-1160097302-167565</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="8aefd74c-d14b-451e-bb38-cf3a729b3efa">
+      <Url>https://fultonhogan.sharepoint.com/teams/PD05433/_layouts/15/DocIdRedir.aspx?ID=MRPA-1160097302-167565</Url>
+      <Description>MRPA-1160097302-167565</Description>
+    </_dlc_DocIdUrl>
+    <DeborahCollins xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
+    <Owner xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
+    <me5b5cb8f12249249ca913346c48a983 xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </me5b5cb8f12249249ca913346c48a983>
+    <ReportID xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <cc33861001d04fbf92e96c5a2d70a7b6 xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </cc33861001d04fbf92e96c5a2d70a7b6>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Count xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824">1</Count>
+    <TeambinderTransmittal xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
+    <TeambinderNumber xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824">TM No.</TeambinderNumber>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEB69297-B125-44BE-82F5-1B716E836873}">
   <ds:schemaRefs>
@@ -2760,34 +2894,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87E081A5-96CD-47EA-95E0-923256609FE0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="8aefd74c-d14b-451e-bb38-cf3a729b3efa"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="67a9c916-b9aa-4dc2-9f16-c44ca415698d"/>
-    <ds:schemaRef ds:uri="2836469c-b43e-4aa1-9b97-2c3e7041e824"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03DC10D4-0034-4DDB-87FC-F3938E87F944}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00B12E90-9383-492A-81BC-2FF07027ACCA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B42E407-EA69-44FA-9789-955B1D949982}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -2805,4 +2912,25 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87E081A5-96CD-47EA-95E0-923256609FE0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2836469c-b43e-4aa1-9b97-2c3e7041e824"/>
+    <ds:schemaRef ds:uri="67a9c916-b9aa-4dc2-9f16-c44ca415698d"/>
+    <ds:schemaRef ds:uri="8aefd74c-d14b-451e-bb38-cf3a729b3efa"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03DC10D4-0034-4DDB-87FC-F3938E87F944}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>